--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -232,9 +232,6 @@
     <t>Severity</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -245,13 +242,16 @@
   </si>
   <si>
     <t>Windows 10 , Google chrome</t>
-  </si>
-  <si>
-    <t>Creating a new account</t>
   </si>
   <si>
     <t>Showing an understandable error message a ( There was a problem
 Internal Error. Please try again later.) I cant decide what is the problem and what does the error means</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>showing undersandable error message</t>
   </si>
 </sst>
 </file>
@@ -309,19 +309,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,22 +621,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -645,11 +645,11 @@
         <v>31</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -657,73 +657,73 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -737,7 +737,7 @@
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -746,49 +746,49 @@
         <v>4</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -802,7 +802,7 @@
       <c r="D26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -811,49 +811,49 @@
         <v>4</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -867,7 +867,7 @@
       <c r="D36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -876,49 +876,49 @@
         <v>4</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="5"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -932,7 +932,7 @@
       <c r="D46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -941,49 +941,49 @@
         <v>4</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="5"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="5"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -994,7 +994,7 @@
       <c r="B57" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1002,52 +1002,52 @@
       <c r="C58" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="D59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="6"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="D61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="D62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="D64" s="6"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -1061,7 +1061,7 @@
       <c r="D68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1070,28 +1070,28 @@
         <v>4</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="5"/>
-      <c r="F70" s="4"/>
+      <c r="F70" s="6"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="F71" s="4"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
@@ -1105,7 +1105,7 @@
       <c r="D76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1114,28 +1114,28 @@
         <v>4</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="F77" s="4"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="F78" s="4"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>42</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="F79" s="4"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="F80" s="4"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="D84" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1161,42 +1161,42 @@
         <v>4</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="F85" s="4"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="F86" s="4"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="F87" s="4"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>37</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="F88" s="4"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>45</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="F89" s="4"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="F90" s="4"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -1215,7 +1215,7 @@
       <c r="D95" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1224,42 +1224,42 @@
         <v>49</v>
       </c>
       <c r="D96" s="5"/>
-      <c r="F96" s="4"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>50</v>
       </c>
       <c r="D97" s="5"/>
-      <c r="F97" s="4"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>51</v>
       </c>
       <c r="D98" s="5"/>
-      <c r="F98" s="4"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>52</v>
       </c>
       <c r="D99" s="5"/>
-      <c r="F99" s="4"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>53</v>
       </c>
       <c r="D100" s="5"/>
-      <c r="F100" s="4"/>
+      <c r="F100" s="6"/>
     </row>
     <row r="101" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
       <c r="D101" s="5"/>
-      <c r="F101" s="4"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
@@ -1273,7 +1273,7 @@
       <c r="D105" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1282,49 +1282,49 @@
         <v>49</v>
       </c>
       <c r="D106" s="5"/>
-      <c r="F106" s="4"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>50</v>
       </c>
       <c r="D107" s="5"/>
-      <c r="F107" s="4"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>51</v>
       </c>
       <c r="D108" s="5"/>
-      <c r="F108" s="4"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>52</v>
       </c>
       <c r="D109" s="5"/>
-      <c r="F109" s="4"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>53</v>
       </c>
       <c r="D110" s="5"/>
-      <c r="F110" s="4"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>54</v>
       </c>
       <c r="D111" s="5"/>
-      <c r="F111" s="4"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>58</v>
       </c>
       <c r="D112" s="5"/>
-      <c r="F112" s="4"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
@@ -1338,7 +1338,7 @@
       <c r="D116" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1347,52 +1347,69 @@
         <v>49</v>
       </c>
       <c r="D117" s="5"/>
-      <c r="F117" s="4"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>50</v>
       </c>
       <c r="D118" s="5"/>
-      <c r="F118" s="4"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>51</v>
       </c>
       <c r="D119" s="5"/>
-      <c r="F119" s="4"/>
+      <c r="F119" s="6"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>52</v>
       </c>
       <c r="D120" s="5"/>
-      <c r="F120" s="4"/>
+      <c r="F120" s="6"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>53</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="F121" s="4"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>54</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="F122" s="4"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>61</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="F123" s="4"/>
+      <c r="F123" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="D46:D53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="F57:F64"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="F76:F80"/>
     <mergeCell ref="D116:D123"/>
     <mergeCell ref="F116:F123"/>
     <mergeCell ref="D84:D90"/>
@@ -1401,23 +1418,6 @@
     <mergeCell ref="F95:F101"/>
     <mergeCell ref="D105:D112"/>
     <mergeCell ref="F105:F112"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="F57:F64"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="F15:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,28 +1443,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1481,22 +1481,23 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>